--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\session\sapient\Java-QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\session\sapient\Java-QA\GITBBACKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46ADE4B0-8B3E-413D-8B75-156F2290FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BE05D-B74D-430C-9C26-54724952E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E3C2AC4-B4A5-4C2F-B7E8-07BDFF5A54D8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Test Case #</t>
   </si>
@@ -124,6 +124,9 @@
       </rPr>
       <t>http://demo.com</t>
     </r>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -255,16 +258,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,7 +587,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+      <selection activeCell="G11" sqref="G11:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -678,60 +681,60 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="48.6" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
@@ -740,7 +743,7 @@
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -753,13 +756,13 @@
         <v>21</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="9"/>
@@ -770,7 +773,7 @@
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="9"/>
@@ -781,7 +784,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="9"/>
@@ -854,11 +857,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
@@ -866,6 +864,11 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{BB68E448-4366-4767-8ADF-32B8CF9E0309}"/>

--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\session\sapient\Java-QA\GITBBACKUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\session\sapient\Java-QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21BE05D-B74D-430C-9C26-54724952E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46ADE4B0-8B3E-413D-8B75-156F2290FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E3C2AC4-B4A5-4C2F-B7E8-07BDFF5A54D8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Test Case #</t>
   </si>
@@ -124,9 +124,6 @@
       </rPr>
       <t>http://demo.com</t>
     </r>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -258,16 +255,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,7 +584,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G14"/>
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -681,60 +678,60 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="48.6" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
@@ -743,7 +740,7 @@
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -756,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="9"/>
@@ -773,7 +770,7 @@
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="9"/>
@@ -784,7 +781,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="9"/>
@@ -857,6 +854,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
@@ -864,11 +866,6 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{BB68E448-4366-4767-8ADF-32B8CF9E0309}"/>
